--- a/medicine/Mort/Cimetière_français_de_Saïgon/Cimetière_français_de_Saïgon.xlsx
+++ b/medicine/Mort/Cimetière_français_de_Saïgon/Cimetière_français_de_Saïgon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_fran%C3%A7ais_de_Sa%C3%AFgon</t>
+          <t>Cimetière_français_de_Saïgon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière français, ou cimetière européen ou cimetière Massiges, est un cimetière chrétien aujourd'hui disparu de la ville de Saïgon (aujourd'hui Ho-Chi-Minh-Ville) en Indochine française, puis en République du Vietnam du Sud. Ouvert en 1859, il a été détruit en 1983. Il a pris le nom de cimetière Mạc-Đĩnh-Chi[1] en 1955. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière français, ou cimetière européen ou cimetière Massiges, est un cimetière chrétien aujourd'hui disparu de la ville de Saïgon (aujourd'hui Ho-Chi-Minh-Ville) en Indochine française, puis en République du Vietnam du Sud. Ouvert en 1859, il a été détruit en 1983. Il a pris le nom de cimetière Mạc-Đĩnh-Chi en 1955. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_fran%C3%A7ais_de_Sa%C3%AFgon</t>
+          <t>Cimetière_français_de_Saïgon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière a ouvert en 1859 au cours de l'expédition de Cochinchine, d'abord comme cimetière militaire autour de la citadelle de Saïgon pour les soldats français morts au combat. Il est situé au nord-ouest de la ville d'alors. il est ouvert aux civils à partir des années 1860, pour la plupart des colons français, dont beaucoup mouraient de maladies tropicales (malaria, choléra, dysenterie, etc.). Y furent enterrés aussi des marchands allemands qui étaient nombreux en Cochinchine française, ainsi que quelques matelots de la flotte impériale russe. Un petit cimetière « annamite » y est installé au nord pour les indigènes convertis au catholicisme. Le cimetière d'abord administré par la marine, l'est par la municipalité à partir des années 1880 par le biais du bureau du service régional d'hygiène de Saïgon. En 1895, on trouvait au cimetière européen les tombes de 239 soldats français.
 Au fil des années, Saïgon devient une grande métropole coloniale et l'on y aménage des sépultures sculptées de fonctionnaires, de colons, de négociants français et des chapelles funéraires de dynasties bourgeoises et de grands planteurs de l'époque.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_fran%C3%A7ais_de_Sa%C3%AFgon</t>
+          <t>Cimetière_français_de_Saïgon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Par date de décès
 Ernest Doudart de Lagrée (1823-1868), explorateur du Mékong (cendres transférées en France dans son village natal de Saint-Vincent-de-Mercuze)
@@ -563,7 +579,7 @@
 Ngô Đình Diệm (1901-1963), président du Vietnam du Sud
 Ngô Đình Nhu (1910-1963), frère du précédent
 Lê Văn Tỵ (1904-1964), maréchal de l'armée du Vietnam du Sud
-François Sully (1927-1971), journaliste[2]</t>
+François Sully (1927-1971), journaliste</t>
         </is>
       </c>
     </row>
